--- a/500all/speech_level/speeches_CHRG-114hhrg20918.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20918.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412275</t>
   </si>
   <si>
-    <t>John Fleming</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Fleming. The Subcommittee on Water, Power and Oceans will come to order.    The Water, Power and Oceans Subcommittee meets today to hear testimony on an oversight hearing entitled Changing Demands and Water Supply Uncertainty in California. We will start with opening statements, beginning with myself.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412511</t>
   </si>
   <si>
-    <t>Jared Huffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Huffman. Thank you, Mr. Chairman.    I want to welcome the witnesses, especially my constituent, Mr. Borck, who has come a long way from Humboldt County, California.    This is the last week, Mr. Chairman, that we are here before heading back to our districts for 7 weeks. I think it is important to point out that when we return, we will have only 8 weeks left in this Congress. There are a number of very important issues that we ought to be addressing; unfortunately, we are here once again in this subcommittee wasting taxpayer dollars on a farce of a hearing to attack the Endangered Species Act and blame environmental protections for California's drought, even though this preposterous claim has been debunked time and again. But I guess I really shouldn't be surprised.    The standard bearer right now for the Republican party, Donald Trump, famously said a few weeks ago in California's Central Valley that there is no drought. He went on to make the same claims that we are going to hear today, blaming water shortages on the Endangered Species Act. His statement on California's drought was rightfully mocked by experts, found to be false by nonpartisan, independent fact checkers, and yet apparently that fact checking did not sink in here in this Congress.    So, let me share a few facts. Fact one, the 2014 water year was the third driest in recorded history, and according to experts, paleontologists, folks who study tree ring records, they conclude the current drought in California is likely the most severe in 1,200 years. According to the U.S. Drought Monitor, 100 percent of the state is currently experiencing some level of drought. To say there is no hydrological drought in California is absurd.    Another fact, the Department of the Interior estimates that the Endangered Species Act accounted for a mere 2 percent of the water supply reduction in the Central Valley Project (CVP) water deliveries in the year 2014 and similar small impacts in 2015. In other words, if there was no Endangered Species Act, if my Republican colleagues got everything they want, simply eliminated the Endangered Species Act, they would get about 2 percent more water in the year 2014, maybe a little bit more than that in 2015.    Third fact, California's State Water Board estimated that in 2015, of all the runoff in the Bay Delta watershed that flowed to San Francisco Bay, in other words, the water that Donald Trump says was being ``shoved to the sea by environmentalists,'' only 2 percent of this runoff actually flowed out to the ocean solely for environmental protection. The vast majority was released to keep the system from salting up, for salinity control, so that we could continue to have that water used by agriculture, by cities, by millions of people who depend on it.    While we are in fact check mode, I want to also examine this notion that somehow California's farming industry is not getting water because of the Endangered Species Act. While some people with vested interests continue to peddle this fiction, the numbers tell a different story. Even in this fifth year of a historic drought, millions of acre-feet of water are being delivered to major agricultural water users. For example, one of the Republican witnesses today, the Tehama-Colusa Canal Authority, will get 100 percent of its maximum water allocation this year. The other Republican witness represents a large group of Ag. users in the San Joaquin Valley that includes the San Joaquin Valley exchange contractors, and they are projected to get 100 percent of their maximum water allocation of around 800,000 acre-feet, for free by the way.    So, make no mistake, Mr. Chairman, a tremendous amount of water is being delivered to agriculture during this drought. In fact, if you average together all the CVP deliveries for all the different contractors, most of whom are agricultural water users, the CVP is expected to deliver about 60 percent of maximum contract quantities this year.    Now, some junior contractors will be significantly impacted much more than those that are getting 100 percent or those that are getting high allocations. That is because they have no water rights, that is because that is the way the system works. But it does not mean they will have no water, because they will buy water from some of those that are getting the high allocations, they will turn to other sources, and they will have some water, even though there will be sacrifice, as you would expect in the fifth year of a critical drought.    It is true that much of the water has been made available, and this is an important point because year after year state and Federal agencies have taken water that was supposed to be used to sustain California's fisheries and they have redirected it, primarily to powerful agricultural interests. Fisheries protections have been cut to the bone and the result has been a disaster for salmon fishermen. There is a zero buffer for endangered fish in this drought.    Federal officials recently announced that there was a 97 percent mortality rate for juvenile Sacramento River winter-run salmon in 2015. The year before that it was 95 percent mortality. So, there is extreme hardship for the families, communities, and tribes who depend on salmon. There are jobs on the ecosystem side of this water system as well, and that is something that we will continue to point out.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>412397</t>
   </si>
   <si>
-    <t>Paul A. Gosar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Gosar. Thank you, Mr. Chairman, for holding this important hearing.    Today, we will hear another narrative of Federal dysfunction. Thanks to much needed precipitation this year, many Californians began to see the light at the end of the drought tunnel. Yet, here we are today holding another hearing on how two Federal fish agencies are making the light dimmer by undermining the water supply mission of another Federal agency, the Bureau of Reclamation.    Many in the western water world have been frustrated for years that the Bureau of Reclamation has not been able to stand up to the never-ending demands of the U.S. Fish and Wildlife Service, the National Marine Fisheries Service, and the litigants who fuel their missions. Based upon the testimony, today's circumstances are no different.    The fish agencies have based their latest demands on the premise that more water equals more fish. That notion has failed to work, as more water has been dedicated to fish, but their populations continue to dwindle, mainly due to ocean conditions, predatory fish, and other natural factors.    These agency proposals for more water midway through the irrigation season were not based on transparency. They not only failed to communicate adequately to water users, but they couldn't even communicate to each other. For example, one agency wanted to hold back water in reservoirs to supposedly benefit salmon, while the other wanted to drain the water to protect the Delta smelt.    These two agencies have direct jurisdiction over the Endangered Species Act, and it is clear they cannot harmonize their views on two different fish within the same watershed. It is time for a holistic approach on managing these species and to have one proposal, not two. Furthermore, these agencies need to be reorganized to avoid this situation. But don't take my word for it, take our President's, who proposed the same ideas a few years ago. So if you will look at the video, I would like to play 22 to 45.    [Video shown.]</t>
   </si>
   <si>
@@ -91,9 +82,6 @@
     <t>412510</t>
   </si>
   <si>
-    <t>Doug LaMalfa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LaMalfa. Thank you, Mr. Chairman. I appreciate you having this hearing and your attention to this tough issue we have going in California.    Over the last several decades, we have seen increasing regulatory requirements imposed on the Central Valley Project that have strangled its ability to provide water for all Californians. CVP is now operated with a stronger emphasis on managing flows for fish than for the millions of Californians who have built it and rely upon it.    Today, we are discussing two contradictory proposals by two wildlife agencies who, clearly, do not communicate with each other. One, NMFS, proposes drastically cutting water releases from the Shasta Reservoir to allegedly assist salmon, and cut Californians' water supply. The Fish and Wildlife Service proposes drastically increasing water releases from Shasta Reservoir, allegedly to assist Delta smelt, and cut Californians' water supplies.    I am really glad that Jeff Sutton could join us today. I have worked a long time with him in Northern California. He comes from the Tehama-Colusa Canal Authority. As their General Manager, he has worked tirelessly to find solutions on all sides of the issues, working collaboratively with the conservation interests as well as keeping the water flowing. So, Jeff, thank you for joining us today.    Mr. Chairman, thank you for the opportunity to introduce and comment.</t>
   </si>
   <si>
@@ -103,18 +91,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Sutton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sutton. Chairman Fleming, Ranking Member Huffman, and members of the subcommittee, thank you for this opportunity to speak today. Again, my name is Jeff Sutton. I am General Manager of the Tehama-Colusa Canal Authority.    I represent 17 water districts through 4 counties on the west side of the Sacramento Valley. We have a 140-mile canal system serving a variety of crops, about 1,000 family farms.    This California drought, everyone has suffered, communities have suffered, the environment has suffered, the fish have suffered, and the farmers have suffered. It has been a rough time. And let me tell you, this is an area that I am very passionate about. My family farming operation that I am involved in goes back to the 1870s. I am fifth generation and my son is number six, so we have been there a long time working for something we are proud of. A lot of our communities are a church, a Ford dealership, a John Deere dealership, and a fertilizer store. These are family farms that are proud of what they do, and finding ourselves kind of being defensive for the folks that provide the water that feeds our country and the Nation. It is just a strange place to be to see our farmers vilified in recent times. We believe we provide a lot to the country and the world.    The recent drought--2008 and 2009 were tough years. We had a couple good years between then, but 2014 and 2015 were extremely hard. For the Tehama-Colusa Canal Authority Service Area, we are those junior water right holders. We are CVP water service contracts, all 17 districts. We had zero percent allocation for 2 straight years. During that time, we fallowed upwards of 70,000 acres. We had to go through amazing gymnastics to prevent the destruction of permanent crops that could not be fallowed through some of those water transfers that, by the way, when we do those water transfers, we have to work with the U.S. Fish and Wildlife Service, because if the water cannot be delivered, a lot of land was put out because of the lack of ability to deliver. But if you want to transfer some from a senior water right holder, you have to jump through a lot of hoops and regulatory issues, CEQA, NEPA, to deal with the fact that you are going to fallow lands that have endangered giant garter snakes on them. And that is another species that is harmed by some of those actions that we are talking about today that are not even really analyzed in the scheme of this entire regulatory regimen. So, those are challenges that we have to work together to get through.    2015 came along--did it solve the problem? No. Congressman Huffman, is the drought completely over? No. But I will tell you, reading the Sacramento Bee flying in yesterday, Shasta Reservoir, that most of us rely on as the largest reservoir in California, is 108 percent of historical average today.    Finding ourselves at a time we rejoiced with 100 percent allocation, you are absolutely right, our district did get 100 percent allocation, and it actually set us up for what was a scarier year than 2014 and 2015 with these actions that have been proposed. We had National Marine Fisheries come in and want to reduce releases out of Shasta to the point that we could not even take water anymore. We would have been completely cut off, this after we had planted all our crops and made that investment, taken out loans, and taken our documents preparing for a bad year to do water transfers and threw them in the garbage can--they wouldn't have done us any good anyway, because it was too late to do water transfers. The lack of certainty after your planting date, after you have been awarded this, and the circumstances that would have befallen our farmers were an absolute tragedy.    Further--and I see my time is running terribly short--but we are also--independently of our own volition and cost, the NMFS action would have stopped us from doing something that we are spending our own money on to help Delta smelt, to run it through a bypass. We are pumping the water, we are operating and maintaining everything, and that would have been prohibited by what NMFS was doing.    In conclusion, we just have to find a way. The water users are engaged. Congressman Huffman, you know our Red Bluff project. I mean, we have done a lot. The fish have a better situation than ever, but we have to start working together. We need one biological opinion and we need collaboration and science-driven process while we work together to get one biological opinion, and help our farmers and the fish. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you, Mr. Sutton.    Mr. Murillo, you are recognized.</t>
   </si>
   <si>
-    <t>Murillo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murillo. Chairman Fleming, Ranking Member Huffman, and members of the subcommittee, I am David Murillo, Regional Director of the Mid-Pacific Region of the Bureau of Reclamation. I am pleased to be here today to discuss changing demands on the Central Valley Project in California and actions we are taking to manage flow and temperatures for the benefit of fish, wildlife, and our water and power customers.    Joining me are Ren Lohoefener from the Fish and Wildlife Service, and Barry Thom from the National Marine Fisheries Services.    My written statement has been submitted for the record, so I will summarize that in the interest of time.    As of this month, the effects of an El Nino winter across California have left us with widely varying water supplies. Some facilities are near full, others are less than half capacity. As you know, despite the variability, Reclamation water users, like those beside me today, must operate facilities to balance competing demands and to comply with a suite of legal requirements.    In the case of the CVP, that means water rights permitting conditions from the California State Water Resource Control Board and biological opinions for the protection of fish listed under the State and Federal Endangered Species Act.    This spring and early summer, our agencies have been working on a temperature management plan for the Sacramento River, as required by the 2009 NMFS biological opinion and State Order 90-5, with the primary focus of protecting winter-run Sacramento River Chinook salmon. The plan is geared toward meeting obligations and maintaining commitments for operations of the CVP and State Water Project. The plan has also been developed to limit impacts to other beneficial uses, such as Folsom Reservoir levels, American River temperature, and Delta water quality.    The other option proposed, temperature management point, is at a location called Balls Ferry in Shasta County, keeping the river there at a 56-degree average daily temperature, as required under Order 90-5. Decisionmaking for significant changes in real-time operations is being coordinated among the partners, including Reclamation, NMFS, the Service, California Department of Water Resources, California Department of Fish and Wildlife, and the State Board.    As always, to the extent that Reclamation and the state can maximize export pumping from the Bay Delta, particularly during any sudden increases in Delta in-flow, we will continue to do so, just as we have done in the past. However, since the plan does fall somewhat short of the planned schedule for releases to the Sacramento River this summer, some adjustments to the 2016 CVP allocations are possible. Throughout this process, we work closely and transparently with CVP water users to explore this possibility. We will continue that collaboration.    That said, and with progressively dryer conditions this summer, we are encouraging communities to continue to conserve water and operate as efficiently as possible. We recognize that has become business as usual for most water users, some of whom are alongside me here today. While I cannot give any guarantees as to how the year will play out, Reclamation stands ready to adjust operations to improve temperature conditions if needed. Equally, Reclamation expects the real-time monitoring and adjustment opportunities provided for in the plan to allow essential flexibility to enable to us meet our commitments, while operating within what will be close confines of the law. I hope that the many jointly funded projects our agencies pursue each year with the water users and environmental communities are evidence of our strong ongoing partnership. At the operational, financial, and policy levels, we are committed to helping California succeed in all years, not just in times of drought, flood, or environmental crises.    In closing, we would like to thank the subcommittee for its attention to this issue. These past several years have been incredibly challenging, and we are proud of the collaboration and creativity the stakeholders have shown in finding ways to manage this complicated and important system.    This concludes my statement. I would be pleased to answer any questions at the appropriate time. Thank you.</t>
   </si>
   <si>
@@ -124,18 +106,12 @@
     <t xml:space="preserve">    Mr. Huffman. Thanks, Mr. Chairman.    It is an honor for me to welcome and to introduce Bob Borck, who is a commercial fisherman in Eureka, California. Right now, our commercial fishermen, their families, and the communities that they are a part of are hanging by a thread. They have had a failed salmon season last year. We had an unprecedented mostly closure of the very important Dungeness crab fishery because of an algae bloom, and some boats are being sold and marinas are struggling.    Mr. Borck is here to remind us that on the fisheries side of this equation there are also real people, real communities, Ford dealerships, churches, boat dealers, and Rotary clubs. There is a human element to that side of this system as well, and I welcome Mr. Borck here to tell us a bit about it.</t>
   </si>
   <si>
-    <t>Borck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Borck. Good morning, members of the committee. Thank you so much for allowing me to be here today. My name is Bob Borck. I am owner-operator of a fishing vessel called the Belle J II, moored in Eureka, California.    Eureka happens to be basically the middle of salmon coast from Washington down into Santa Cruz. We are dead set in the middle of it, and we are a port that may never ever have another regular salmon season again, for other reasons than Central Valley water, but, again, we are a port that will never fish out of our own town again for a full season.    The U.S. salmon troll fleet is in trouble. There is no other way to put it. You have the Sacramento-San Joaquin fish. They are the bulk of what we fish on here in California. They are also a huge component of what gets caught in Oregon. They are caught off Washington. There have been net pen fish that were raised at, I believe it was Half Moon Bay, that were put in the ocean to increase our ability to catch. They are caught as far north as Alaska. You look at the Columbia River, they are the mainstay of Washington and Alaska troll salmon.    The problem is freshwater in inland watersheds. If you don't have enough freshwater for spawners to go up and you don't have enough freshwater for smolts to survive to get out, you lose your fishery. That is what we have had with the drought.    Assuming that this drought ends and we get all happy and there is lots of water again, it will be 3 years before the troll fleet sees a successful season. You have to have plenty of water to flush the smolts out of the river system and avoid predation. It takes water.    On the coast, you have at least 30,000 jobs, well over a billion dollars in economic benefit that happens. You have 2,000 commercial permit holders up and down the coast in the different states. Most of those boats have crews. There are all the support businesses on land, from Englund Marine, where I buy rope and buoys and all the parts and pieces that it takes to keep the boat going, to when I am stuck in Coos Bay and the wind is blowing, I am eating in restaurants and staying in hotels. Water is the issue.    Last year, I ended up spending the end of July and most of August in Oregon. I had four trips in a row with one or two fish per trip. I did not cover the expenses of the ice, let alone the cost of the fuel, let alone being away from home for 6 straight weeks. This year, Jeff French, fishing out of Half Moon Bay, had five fish in four trips. He too did not make his expenses. The Alaska troll king fishery that started July 1 lasted a grand total of 5 days. Their allocation was mopped up in 5 days.    Heather Sears, who has a boat out of Southern California, she leased a Washington permit. I think she told me she spent $8,000 leasing the permit. She figures she is not even going to put a hook in the water in Washington because their allocation for fish was so small, it wasn't even worth trying. She drove right past there and went to Alaska and had her 5 days.    There is an incredible cost to doing business here. I have lost $150,000 in the last 7 years trying to buy in and get a commercial fishing operation off the ground. Part of it is bad timing because of the drought, because we don't have water, because we don't have adequate salmon seasons.    People are hurting. Trucks are being repossessed. People are losing homes. Why? Because we don't have an adequate way to go take our boats and do what used to be done 30, 40, 50 years ago with ease. And a lot of it has to do with the fact that we don't have enough salmon, and we don't have enough salmon because we don't have enough water.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you.    The Chair now recognizes Mr. Azhderian for 5 minutes.</t>
   </si>
   <si>
-    <t>Azhderian</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Azhderian. Good morning, Mr. Chair, Ranking Member Huffman, and members of the committee. It is an honor to be here with you today.    If there is one thing that I would ask you to remember about today, it is that California is at yet another crossroads in how we manage endangered species and water supply. The decisions that will be made in the coming weeks and months will have impacts probably for years.    The testimony you have heard from the Federal agencies and will hear from the Federal agencies is really aimed at assuaging the concerns about how we are managing both fish and water. What I found interesting in the testimony is not what they say so much, but rather what they don't say.    There is nothing about how other stressors are being dealt with, there is nothing about the ill-conceived summer flow proposal that is more likely to hurt Delta smelt than to help them, and is in clear conflict with temperature management objectives for winter-run salmon. There is nothing about what happens to the millions of Californians that are dependent on the CVP water supply if things do not go as planned. There is nothing about the water supply impacts that are already beginning to accrue into 2017; rather, it is an expression of a false confidence about a status quo, insular, single-species, single-stressor approach that somehow will work this time.    For a quarter of a century now, National Marine Fisheries Service and the Fish and Wildlife Service have been responsible for the protection and recovery of winter-run salmon and Delta smelt. The status of winter-run salmon is poor, not the worst we have seen, but poor. Delta smelt numbers, of course, are at historic lows. And throughout this time at each crossroads, the decision has been to continue to manage our fisheries in the same manner, this despite broad recognition from the onset that comprehensive solutions and collaboration was the way to proceed.    In the early 1990s, the environmental community, water users, and the state and Federal Government all recognized the need for collaboration and comprehensive solutions, and agreed when they signed the Bay Delta accord, to move forward in that fashion. Unfortunately, that did not occur. In the decades following, numerous independent science panels have warned us of sticking to this approach, of not researching the biological causal effects of these fisheries' declines. In 2009, the state of California reaffirmed the need for comprehensive solutions when it passed the Delta Reform Act. This is not new advice. It has just been ignored.    So we have a choice. It is critical to remember we have a choice. This crossroad provides an opportunity to broaden participation in the process, to reassess our current failed approaches, to research causal effects, enlist stakeholder support, demand accountability about the results, and refine and redirect our actions or reject them based upon demonstrable benefits and evidence.    In the end, changing demands is not about Ag. and municipal use. We are among the most efficient users of water in the world. It is about unbridled regulation. And water supply uncertainty is about the unceasing demand for more water for environmental use without accountability. After a quarter century, and fish populations, water supplies, and the people who care about both worse off than ever, it is time that we deserve better environmental protection.    I thank you for the opportunity to speak here today and look forward to any questions you may have. Thank you.</t>
   </si>
   <si>
@@ -202,9 +178,6 @@
     <t xml:space="preserve">    Mr. Huffman. One consequence of operating the system with that aggressive flexibility has been fishery impacts, as we have heard from our fisheries agencies. So, I just want to ask the two fisheries agencies here if they would agree with the proposition that that flexibility has in turn caused some harm to the struggling fisheries?</t>
   </si>
   <si>
-    <t>Lohoefener</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Lohoefener. Thank you for the question, Congressman Huffman. Well, one of the aspects I am proudest of over the last 8 years is the collaboration that has been built between the Bureau of Reclamation, National Marine Fisheries Service, California Department of Water Resources, and California Fish and Wildlife. That collaboration has led today to where we make much wiser decisions, but also to recognize----</t>
   </si>
   <si>
@@ -217,12 +190,6 @@
     <t xml:space="preserve">    Mr. Huffman. All right. And, Mr. Thom, would you agree with that?</t>
   </si>
   <si>
-    <t>412643</t>
-  </si>
-  <si>
-    <t>Thomas MacArthur</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thom. I would just say it has shown from the monitoring data for both 2014 and 2015 that the survival rate of winter-run Chinook was very low coming out of the Sacramento system over those 2 years.</t>
   </si>
   <si>
@@ -241,9 +208,6 @@
     <t>412295</t>
   </si>
   <si>
-    <t>Tom McClintock</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McClintock. Thank you, Mr. Chairman.    Mr. Murillo, La Nina conditions now appear likely for this winter, do they not?</t>
   </si>
   <si>
@@ -340,9 +304,6 @@
     <t>400618</t>
   </si>
   <si>
-    <t>Jim Costa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Costa. Thank you very much, Mr. Chairman. And I want to commend you for holding this hearing, because I think it highlights what really is the situation in California, and that is a broken water system. The testimony and the questions, I think, all point out to the difficulty of a saying that I think aptly describes what we are dealing with, and that is, continuing to do what we have always done and expect different results, that is a definition of insanity, and that is what we are doing here by this additional flow that has taken place through the summer runs.    Mr. Lohoefener, I really commend your efforts over the years and your service to our country and your efforts to try to solve problems. Let me ask you, this summer outflow requirement--and certainly I think U.S. Fish and Wildlife Service ought to be combined with NMFS, that was a point that was made earlier. But this summer outflow requirement, is there anything in the biological opinion that requires this to take place?</t>
   </si>
   <si>
@@ -535,9 +496,6 @@
     <t>412294</t>
   </si>
   <si>
-    <t>Cynthia M. Lummis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lummis. Thank you, Mr. Chairman.    You may be wondering why a Member from Wyoming would come to a hearing that is mostly a coastal states' issue. I got to go to Fresno to a hearing on the Delta smelt, and I got to see the dried up almond trees, the dead pistachio trees. We got to meet the farmers who are out of work, both owners and workers who are desperately trying to hang on to a culture, a way of life, a community. And they came together to address these issues, and it was kind of moving. So, I continue to have an interest in this issue.    My question is for you, and I am going to need help with your name. Is it Murillo, Mr. Murillo?</t>
   </si>
   <si>
@@ -595,9 +553,6 @@
     <t>412403</t>
   </si>
   <si>
-    <t>Jeff Denham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Denham. Thank you, Mr. Chairman.    Mr. Murillo, you and I have worked together quite a bit on water deliveries and movement throughout the Central Valley. I want to see if you can give me an update on New Melones and the increased storage that we could possibly have there.</t>
   </si>
   <si>
@@ -653,9 +608,6 @@
   </si>
   <si>
     <t>412660</t>
-  </si>
-  <si>
-    <t>Dan Newhouse</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you, Mr. Chairman. Thank you all for being here this morning.    Being from the state of Washington, I am somewhat reluctant to get engaged in this California water war. I am like Mr. Costa, it is easy to let it drive you crazy. But if it weren't so important to not only the economy, but also the food supply of our whole country, as well as how you solve, or how we help you solve, your water issues will greatly impact how we solve water issues in the Pacific Northwest as well. So, this is a big issue.    I heard from Mr. LaMalfa in his opening comments some frustration about contrary policy by different agencies in the basin, or in the state. I think I heard that there were competing biological opinions and some interest in connecting those or making them into one, if that is a possibility.    Mr. Azhderian, you also expressed some frustration associated with a lack of transparency and collaboration. From those of us from the outside looking in, these California water wars have been going on for a long time. There must be a better way. And I think maybe we have touched on some of those avenues of doing this better, the collaboration, the transparency, all looking toward a similar goal of increased water availability, returning fish populations, habitat, but also protecting our very important agricultural industry and fishing industry.    So what would a better model look like? All of you from different perspectives. I will start with you, Mr. Azhderian.</t>
@@ -1093,11 +1045,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1119,11 +1069,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1143,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1171,11 +1117,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1195,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1221,13 +1163,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1249,11 +1189,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1273,13 +1211,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1301,11 +1237,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1325,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1353,11 +1285,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1377,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1405,11 +1333,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1429,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1455,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1483,11 +1405,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1507,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1535,11 +1453,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1559,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1587,11 +1501,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1611,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1639,11 +1549,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1663,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1691,11 +1597,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1715,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1743,11 +1645,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1767,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1795,11 +1693,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1819,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1847,11 +1741,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1871,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1899,11 +1789,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1923,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1949,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1977,11 +1861,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2001,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2027,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2053,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2079,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" t="s">
-        <v>62</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2105,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2131,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" t="s">
-        <v>62</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2157,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2183,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" t="s">
-        <v>68</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2209,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2235,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>28</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2261,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2289,11 +2149,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2313,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
-      </c>
-      <c r="G49" t="s">
-        <v>75</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2339,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2365,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
-      </c>
-      <c r="G51" t="s">
-        <v>75</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2391,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>28</v>
-      </c>
-      <c r="G52" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2417,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" t="s">
-        <v>75</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2443,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
-      </c>
-      <c r="G54" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2469,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>74</v>
-      </c>
-      <c r="G55" t="s">
-        <v>75</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2495,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2521,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G57" t="s">
-        <v>75</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2547,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2573,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
         <v>74</v>
-      </c>
-      <c r="G59" t="s">
-        <v>75</v>
-      </c>
-      <c r="H59" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2599,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2625,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" t="s">
-        <v>75</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2651,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
-      </c>
-      <c r="G62" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2677,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>74</v>
-      </c>
-      <c r="G63" t="s">
-        <v>75</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2703,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2729,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>74</v>
-      </c>
-      <c r="G65" t="s">
-        <v>75</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2755,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
-      </c>
-      <c r="G66" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2781,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>74</v>
-      </c>
-      <c r="G67" t="s">
-        <v>75</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2807,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2833,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
-      </c>
-      <c r="G69" t="s">
-        <v>75</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2859,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>28</v>
-      </c>
-      <c r="G70" t="s">
-        <v>36</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2885,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>74</v>
-      </c>
-      <c r="G71" t="s">
-        <v>75</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2911,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>28</v>
-      </c>
-      <c r="G72" t="s">
-        <v>36</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2937,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>74</v>
-      </c>
-      <c r="G73" t="s">
-        <v>75</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2963,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2989,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>74</v>
-      </c>
-      <c r="G75" t="s">
-        <v>75</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3015,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" t="s">
-        <v>36</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3041,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>74</v>
-      </c>
-      <c r="G77" t="s">
-        <v>75</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3067,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>28</v>
-      </c>
-      <c r="G78" t="s">
-        <v>36</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3095,11 +2893,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3119,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>107</v>
-      </c>
-      <c r="G80" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3145,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
-      </c>
-      <c r="G81" t="s">
-        <v>62</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3171,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>107</v>
-      </c>
-      <c r="G82" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3197,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" t="s">
-        <v>62</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3223,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>107</v>
-      </c>
-      <c r="G84" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3249,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3275,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>107</v>
-      </c>
-      <c r="G86" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3301,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3327,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
-      </c>
-      <c r="G88" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3353,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
-      </c>
-      <c r="G89" t="s">
-        <v>62</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3379,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>107</v>
-      </c>
-      <c r="G90" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3405,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>28</v>
-      </c>
-      <c r="G91" t="s">
-        <v>62</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3431,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>107</v>
-      </c>
-      <c r="G92" t="s">
+        <v>95</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
         <v>108</v>
-      </c>
-      <c r="H92" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3457,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>28</v>
-      </c>
-      <c r="G93" t="s">
-        <v>62</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3483,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>107</v>
-      </c>
-      <c r="G94" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3509,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>28</v>
-      </c>
-      <c r="G95" t="s">
-        <v>62</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3535,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>107</v>
-      </c>
-      <c r="G96" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3561,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>28</v>
-      </c>
-      <c r="G97" t="s">
-        <v>62</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3589,11 +3349,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3613,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>107</v>
-      </c>
-      <c r="G99" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3641,11 +3397,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3665,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>107</v>
-      </c>
-      <c r="G101" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3691,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
-      </c>
-      <c r="G102" t="s">
-        <v>62</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3717,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>107</v>
-      </c>
-      <c r="G103" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3743,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>28</v>
-      </c>
-      <c r="G104" t="s">
-        <v>62</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3769,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>107</v>
-      </c>
-      <c r="G105" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3795,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>28</v>
-      </c>
-      <c r="G106" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3821,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>107</v>
-      </c>
-      <c r="G107" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3849,11 +3589,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3873,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3899,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>28</v>
-      </c>
-      <c r="G110" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3925,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3951,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>28</v>
-      </c>
-      <c r="G112" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3977,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4003,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>28</v>
-      </c>
-      <c r="G114" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4029,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>24</v>
-      </c>
-      <c r="G115" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4055,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>28</v>
-      </c>
-      <c r="G116" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4081,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>24</v>
-      </c>
-      <c r="G117" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4107,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>67</v>
-      </c>
-      <c r="G118" t="s">
-        <v>68</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4133,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>24</v>
-      </c>
-      <c r="G119" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4159,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>67</v>
-      </c>
-      <c r="G120" t="s">
-        <v>68</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4185,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>24</v>
-      </c>
-      <c r="G121" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4211,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>67</v>
-      </c>
-      <c r="G122" t="s">
-        <v>68</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4237,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>24</v>
-      </c>
-      <c r="G123" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4263,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>67</v>
-      </c>
-      <c r="G124" t="s">
-        <v>68</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4289,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
-      </c>
-      <c r="G125" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4315,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>67</v>
-      </c>
-      <c r="G126" t="s">
-        <v>68</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4341,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>24</v>
-      </c>
-      <c r="G127" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4367,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
-      </c>
-      <c r="G128" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4393,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>24</v>
-      </c>
-      <c r="G129" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4419,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>28</v>
-      </c>
-      <c r="G130" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4445,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>24</v>
-      </c>
-      <c r="G131" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4471,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>28</v>
-      </c>
-      <c r="G132" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4497,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>24</v>
-      </c>
-      <c r="G133" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4523,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>28</v>
-      </c>
-      <c r="G134" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4549,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>24</v>
-      </c>
-      <c r="G135" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4575,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>28</v>
-      </c>
-      <c r="G136" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4601,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>24</v>
-      </c>
-      <c r="G137" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4627,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>28</v>
-      </c>
-      <c r="G138" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4653,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>24</v>
-      </c>
-      <c r="G139" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4681,11 +4357,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4705,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>24</v>
-      </c>
-      <c r="G141" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4733,11 +4405,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4757,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>172</v>
-      </c>
-      <c r="G143" t="s">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4783,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>28</v>
-      </c>
-      <c r="G144" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4809,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>172</v>
-      </c>
-      <c r="G145" t="s">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4835,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>28</v>
-      </c>
-      <c r="G146" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4861,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>172</v>
-      </c>
-      <c r="G147" t="s">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4887,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
-      </c>
-      <c r="G148" t="s">
-        <v>62</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4913,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>172</v>
-      </c>
-      <c r="G149" t="s">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4939,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>28</v>
-      </c>
-      <c r="G150" t="s">
-        <v>62</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4965,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>172</v>
-      </c>
-      <c r="G151" t="s">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4991,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>107</v>
-      </c>
-      <c r="G152" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5017,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>172</v>
-      </c>
-      <c r="G153" t="s">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5043,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>107</v>
-      </c>
-      <c r="G154" t="s">
-        <v>108</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5069,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
+        <v>159</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
         <v>172</v>
-      </c>
-      <c r="G155" t="s">
-        <v>173</v>
-      </c>
-      <c r="H155" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5095,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>28</v>
-      </c>
-      <c r="G156" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5121,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>172</v>
-      </c>
-      <c r="G157" t="s">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5147,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>67</v>
-      </c>
-      <c r="G158" t="s">
-        <v>68</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5173,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>172</v>
-      </c>
-      <c r="G159" t="s">
-        <v>173</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5201,11 +4837,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5225,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>192</v>
-      </c>
-      <c r="G161" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5251,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>28</v>
-      </c>
-      <c r="G162" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5277,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>192</v>
-      </c>
-      <c r="G163" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5303,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>28</v>
-      </c>
-      <c r="G164" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5329,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>192</v>
-      </c>
-      <c r="G165" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5355,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>28</v>
-      </c>
-      <c r="G166" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5381,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>192</v>
-      </c>
-      <c r="G167" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5407,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>28</v>
-      </c>
-      <c r="G168" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5433,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>192</v>
-      </c>
-      <c r="G169" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5459,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>67</v>
-      </c>
-      <c r="G170" t="s">
-        <v>68</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5485,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>192</v>
-      </c>
-      <c r="G171" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5511,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>28</v>
-      </c>
-      <c r="G172" t="s">
-        <v>36</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5537,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>192</v>
-      </c>
-      <c r="G173" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5563,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>28</v>
-      </c>
-      <c r="G174" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5589,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>192</v>
-      </c>
-      <c r="G175" t="s">
+        <v>178</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
         <v>193</v>
-      </c>
-      <c r="H175" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5615,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>28</v>
-      </c>
-      <c r="G176" t="s">
-        <v>36</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5641,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>192</v>
-      </c>
-      <c r="G177" t="s">
-        <v>193</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5669,11 +5269,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5693,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>212</v>
-      </c>
-      <c r="G179" t="s">
-        <v>213</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5719,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>28</v>
-      </c>
-      <c r="G180" t="s">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5745,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>212</v>
-      </c>
-      <c r="G181" t="s">
-        <v>213</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5771,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>28</v>
-      </c>
-      <c r="G182" t="s">
-        <v>36</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5797,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>212</v>
-      </c>
-      <c r="G183" t="s">
-        <v>213</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5823,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>28</v>
-      </c>
-      <c r="G184" t="s">
-        <v>29</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5849,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>212</v>
-      </c>
-      <c r="G185" t="s">
-        <v>213</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5875,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>28</v>
-      </c>
-      <c r="G186" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5901,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>212</v>
-      </c>
-      <c r="G187" t="s">
-        <v>213</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5927,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>28</v>
-      </c>
-      <c r="G188" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5953,13 +5531,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>212</v>
-      </c>
-      <c r="G189" t="s">
-        <v>213</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5979,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>28</v>
-      </c>
-      <c r="G190" t="s">
-        <v>32</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6005,13 +5579,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>212</v>
-      </c>
-      <c r="G191" t="s">
-        <v>213</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6033,11 +5605,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20918.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20918.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412275</t>
   </si>
   <si>
+    <t>Fleming</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Fleming. The Subcommittee on Water, Power and Oceans will come to order.    The Water, Power and Oceans Subcommittee meets today to hear testimony on an oversight hearing entitled Changing Demands and Water Supply Uncertainty in California. We will start with opening statements, beginning with myself.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412511</t>
   </si>
   <si>
+    <t>Huffman</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Huffman. Thank you, Mr. Chairman.    I want to welcome the witnesses, especially my constituent, Mr. Borck, who has come a long way from Humboldt County, California.    This is the last week, Mr. Chairman, that we are here before heading back to our districts for 7 weeks. I think it is important to point out that when we return, we will have only 8 weeks left in this Congress. There are a number of very important issues that we ought to be addressing; unfortunately, we are here once again in this subcommittee wasting taxpayer dollars on a farce of a hearing to attack the Endangered Species Act and blame environmental protections for California's drought, even though this preposterous claim has been debunked time and again. But I guess I really shouldn't be surprised.    The standard bearer right now for the Republican party, Donald Trump, famously said a few weeks ago in California's Central Valley that there is no drought. He went on to make the same claims that we are going to hear today, blaming water shortages on the Endangered Species Act. His statement on California's drought was rightfully mocked by experts, found to be false by nonpartisan, independent fact checkers, and yet apparently that fact checking did not sink in here in this Congress.    So, let me share a few facts. Fact one, the 2014 water year was the third driest in recorded history, and according to experts, paleontologists, folks who study tree ring records, they conclude the current drought in California is likely the most severe in 1,200 years. According to the U.S. Drought Monitor, 100 percent of the state is currently experiencing some level of drought. To say there is no hydrological drought in California is absurd.    Another fact, the Department of the Interior estimates that the Endangered Species Act accounted for a mere 2 percent of the water supply reduction in the Central Valley Project (CVP) water deliveries in the year 2014 and similar small impacts in 2015. In other words, if there was no Endangered Species Act, if my Republican colleagues got everything they want, simply eliminated the Endangered Species Act, they would get about 2 percent more water in the year 2014, maybe a little bit more than that in 2015.    Third fact, California's State Water Board estimated that in 2015, of all the runoff in the Bay Delta watershed that flowed to San Francisco Bay, in other words, the water that Donald Trump says was being ``shoved to the sea by environmentalists,'' only 2 percent of this runoff actually flowed out to the ocean solely for environmental protection. The vast majority was released to keep the system from salting up, for salinity control, so that we could continue to have that water used by agriculture, by cities, by millions of people who depend on it.    While we are in fact check mode, I want to also examine this notion that somehow California's farming industry is not getting water because of the Endangered Species Act. While some people with vested interests continue to peddle this fiction, the numbers tell a different story. Even in this fifth year of a historic drought, millions of acre-feet of water are being delivered to major agricultural water users. For example, one of the Republican witnesses today, the Tehama-Colusa Canal Authority, will get 100 percent of its maximum water allocation this year. The other Republican witness represents a large group of Ag. users in the San Joaquin Valley that includes the San Joaquin Valley exchange contractors, and they are projected to get 100 percent of their maximum water allocation of around 800,000 acre-feet, for free by the way.    So, make no mistake, Mr. Chairman, a tremendous amount of water is being delivered to agriculture during this drought. In fact, if you average together all the CVP deliveries for all the different contractors, most of whom are agricultural water users, the CVP is expected to deliver about 60 percent of maximum contract quantities this year.    Now, some junior contractors will be significantly impacted much more than those that are getting 100 percent or those that are getting high allocations. That is because they have no water rights, that is because that is the way the system works. But it does not mean they will have no water, because they will buy water from some of those that are getting the high allocations, they will turn to other sources, and they will have some water, even though there will be sacrifice, as you would expect in the fifth year of a critical drought.    It is true that much of the water has been made available, and this is an important point because year after year state and Federal agencies have taken water that was supposed to be used to sustain California's fisheries and they have redirected it, primarily to powerful agricultural interests. Fisheries protections have been cut to the bone and the result has been a disaster for salmon fishermen. There is a zero buffer for endangered fish in this drought.    Federal officials recently announced that there was a 97 percent mortality rate for juvenile Sacramento River winter-run salmon in 2015. The year before that it was 95 percent mortality. So, there is extreme hardship for the families, communities, and tribes who depend on salmon. There are jobs on the ecosystem side of this water system as well, and that is something that we will continue to point out.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>412397</t>
   </si>
   <si>
+    <t>Gosar</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Gosar. Thank you, Mr. Chairman, for holding this important hearing.    Today, we will hear another narrative of Federal dysfunction. Thanks to much needed precipitation this year, many Californians began to see the light at the end of the drought tunnel. Yet, here we are today holding another hearing on how two Federal fish agencies are making the light dimmer by undermining the water supply mission of another Federal agency, the Bureau of Reclamation.    Many in the western water world have been frustrated for years that the Bureau of Reclamation has not been able to stand up to the never-ending demands of the U.S. Fish and Wildlife Service, the National Marine Fisheries Service, and the litigants who fuel their missions. Based upon the testimony, today's circumstances are no different.    The fish agencies have based their latest demands on the premise that more water equals more fish. That notion has failed to work, as more water has been dedicated to fish, but their populations continue to dwindle, mainly due to ocean conditions, predatory fish, and other natural factors.    These agency proposals for more water midway through the irrigation season were not based on transparency. They not only failed to communicate adequately to water users, but they couldn't even communicate to each other. For example, one agency wanted to hold back water in reservoirs to supposedly benefit salmon, while the other wanted to drain the water to protect the Delta smelt.    These two agencies have direct jurisdiction over the Endangered Species Act, and it is clear they cannot harmonize their views on two different fish within the same watershed. It is time for a holistic approach on managing these species and to have one proposal, not two. Furthermore, these agencies need to be reorganized to avoid this situation. But don't take my word for it, take our President's, who proposed the same ideas a few years ago. So if you will look at the video, I would like to play 22 to 45.    [Video shown.]</t>
   </si>
   <si>
@@ -82,6 +103,12 @@
     <t>412510</t>
   </si>
   <si>
+    <t>LaMalfa</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. LaMalfa. Thank you, Mr. Chairman. I appreciate you having this hearing and your attention to this tough issue we have going in California.    Over the last several decades, we have seen increasing regulatory requirements imposed on the Central Valley Project that have strangled its ability to provide water for all Californians. CVP is now operated with a stronger emphasis on managing flows for fish than for the millions of Californians who have built it and rely upon it.    Today, we are discussing two contradictory proposals by two wildlife agencies who, clearly, do not communicate with each other. One, NMFS, proposes drastically cutting water releases from the Shasta Reservoir to allegedly assist salmon, and cut Californians' water supply. The Fish and Wildlife Service proposes drastically increasing water releases from Shasta Reservoir, allegedly to assist Delta smelt, and cut Californians' water supplies.    I am really glad that Jeff Sutton could join us today. I have worked a long time with him in Northern California. He comes from the Tehama-Colusa Canal Authority. As their General Manager, he has worked tirelessly to find solutions on all sides of the issues, working collaboratively with the conservation interests as well as keeping the water flowing. So, Jeff, thank you for joining us today.    Mr. Chairman, thank you for the opportunity to introduce and comment.</t>
   </si>
   <si>
@@ -91,12 +118,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Sutton</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sutton. Chairman Fleming, Ranking Member Huffman, and members of the subcommittee, thank you for this opportunity to speak today. Again, my name is Jeff Sutton. I am General Manager of the Tehama-Colusa Canal Authority.    I represent 17 water districts through 4 counties on the west side of the Sacramento Valley. We have a 140-mile canal system serving a variety of crops, about 1,000 family farms.    This California drought, everyone has suffered, communities have suffered, the environment has suffered, the fish have suffered, and the farmers have suffered. It has been a rough time. And let me tell you, this is an area that I am very passionate about. My family farming operation that I am involved in goes back to the 1870s. I am fifth generation and my son is number six, so we have been there a long time working for something we are proud of. A lot of our communities are a church, a Ford dealership, a John Deere dealership, and a fertilizer store. These are family farms that are proud of what they do, and finding ourselves kind of being defensive for the folks that provide the water that feeds our country and the Nation. It is just a strange place to be to see our farmers vilified in recent times. We believe we provide a lot to the country and the world.    The recent drought--2008 and 2009 were tough years. We had a couple good years between then, but 2014 and 2015 were extremely hard. For the Tehama-Colusa Canal Authority Service Area, we are those junior water right holders. We are CVP water service contracts, all 17 districts. We had zero percent allocation for 2 straight years. During that time, we fallowed upwards of 70,000 acres. We had to go through amazing gymnastics to prevent the destruction of permanent crops that could not be fallowed through some of those water transfers that, by the way, when we do those water transfers, we have to work with the U.S. Fish and Wildlife Service, because if the water cannot be delivered, a lot of land was put out because of the lack of ability to deliver. But if you want to transfer some from a senior water right holder, you have to jump through a lot of hoops and regulatory issues, CEQA, NEPA, to deal with the fact that you are going to fallow lands that have endangered giant garter snakes on them. And that is another species that is harmed by some of those actions that we are talking about today that are not even really analyzed in the scheme of this entire regulatory regimen. So, those are challenges that we have to work together to get through.    2015 came along--did it solve the problem? No. Congressman Huffman, is the drought completely over? No. But I will tell you, reading the Sacramento Bee flying in yesterday, Shasta Reservoir, that most of us rely on as the largest reservoir in California, is 108 percent of historical average today.    Finding ourselves at a time we rejoiced with 100 percent allocation, you are absolutely right, our district did get 100 percent allocation, and it actually set us up for what was a scarier year than 2014 and 2015 with these actions that have been proposed. We had National Marine Fisheries come in and want to reduce releases out of Shasta to the point that we could not even take water anymore. We would have been completely cut off, this after we had planted all our crops and made that investment, taken out loans, and taken our documents preparing for a bad year to do water transfers and threw them in the garbage can--they wouldn't have done us any good anyway, because it was too late to do water transfers. The lack of certainty after your planting date, after you have been awarded this, and the circumstances that would have befallen our farmers were an absolute tragedy.    Further--and I see my time is running terribly short--but we are also--independently of our own volition and cost, the NMFS action would have stopped us from doing something that we are spending our own money on to help Delta smelt, to run it through a bypass. We are pumping the water, we are operating and maintaining everything, and that would have been prohibited by what NMFS was doing.    In conclusion, we just have to find a way. The water users are engaged. Congressman Huffman, you know our Red Bluff project. I mean, we have done a lot. The fish have a better situation than ever, but we have to start working together. We need one biological opinion and we need collaboration and science-driven process while we work together to get one biological opinion, and help our farmers and the fish. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you, Mr. Sutton.    Mr. Murillo, you are recognized.</t>
   </si>
   <si>
+    <t>Murillo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Murillo. Chairman Fleming, Ranking Member Huffman, and members of the subcommittee, I am David Murillo, Regional Director of the Mid-Pacific Region of the Bureau of Reclamation. I am pleased to be here today to discuss changing demands on the Central Valley Project in California and actions we are taking to manage flow and temperatures for the benefit of fish, wildlife, and our water and power customers.    Joining me are Ren Lohoefener from the Fish and Wildlife Service, and Barry Thom from the National Marine Fisheries Services.    My written statement has been submitted for the record, so I will summarize that in the interest of time.    As of this month, the effects of an El Nino winter across California have left us with widely varying water supplies. Some facilities are near full, others are less than half capacity. As you know, despite the variability, Reclamation water users, like those beside me today, must operate facilities to balance competing demands and to comply with a suite of legal requirements.    In the case of the CVP, that means water rights permitting conditions from the California State Water Resource Control Board and biological opinions for the protection of fish listed under the State and Federal Endangered Species Act.    This spring and early summer, our agencies have been working on a temperature management plan for the Sacramento River, as required by the 2009 NMFS biological opinion and State Order 90-5, with the primary focus of protecting winter-run Sacramento River Chinook salmon. The plan is geared toward meeting obligations and maintaining commitments for operations of the CVP and State Water Project. The plan has also been developed to limit impacts to other beneficial uses, such as Folsom Reservoir levels, American River temperature, and Delta water quality.    The other option proposed, temperature management point, is at a location called Balls Ferry in Shasta County, keeping the river there at a 56-degree average daily temperature, as required under Order 90-5. Decisionmaking for significant changes in real-time operations is being coordinated among the partners, including Reclamation, NMFS, the Service, California Department of Water Resources, California Department of Fish and Wildlife, and the State Board.    As always, to the extent that Reclamation and the state can maximize export pumping from the Bay Delta, particularly during any sudden increases in Delta in-flow, we will continue to do so, just as we have done in the past. However, since the plan does fall somewhat short of the planned schedule for releases to the Sacramento River this summer, some adjustments to the 2016 CVP allocations are possible. Throughout this process, we work closely and transparently with CVP water users to explore this possibility. We will continue that collaboration.    That said, and with progressively dryer conditions this summer, we are encouraging communities to continue to conserve water and operate as efficiently as possible. We recognize that has become business as usual for most water users, some of whom are alongside me here today. While I cannot give any guarantees as to how the year will play out, Reclamation stands ready to adjust operations to improve temperature conditions if needed. Equally, Reclamation expects the real-time monitoring and adjustment opportunities provided for in the plan to allow essential flexibility to enable to us meet our commitments, while operating within what will be close confines of the law. I hope that the many jointly funded projects our agencies pursue each year with the water users and environmental communities are evidence of our strong ongoing partnership. At the operational, financial, and policy levels, we are committed to helping California succeed in all years, not just in times of drought, flood, or environmental crises.    In closing, we would like to thank the subcommittee for its attention to this issue. These past several years have been incredibly challenging, and we are proud of the collaboration and creativity the stakeholders have shown in finding ways to manage this complicated and important system.    This concludes my statement. I would be pleased to answer any questions at the appropriate time. Thank you.</t>
   </si>
   <si>
@@ -106,12 +139,18 @@
     <t xml:space="preserve">    Mr. Huffman. Thanks, Mr. Chairman.    It is an honor for me to welcome and to introduce Bob Borck, who is a commercial fisherman in Eureka, California. Right now, our commercial fishermen, their families, and the communities that they are a part of are hanging by a thread. They have had a failed salmon season last year. We had an unprecedented mostly closure of the very important Dungeness crab fishery because of an algae bloom, and some boats are being sold and marinas are struggling.    Mr. Borck is here to remind us that on the fisheries side of this equation there are also real people, real communities, Ford dealerships, churches, boat dealers, and Rotary clubs. There is a human element to that side of this system as well, and I welcome Mr. Borck here to tell us a bit about it.</t>
   </si>
   <si>
+    <t>Borck</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Borck. Good morning, members of the committee. Thank you so much for allowing me to be here today. My name is Bob Borck. I am owner-operator of a fishing vessel called the Belle J II, moored in Eureka, California.    Eureka happens to be basically the middle of salmon coast from Washington down into Santa Cruz. We are dead set in the middle of it, and we are a port that may never ever have another regular salmon season again, for other reasons than Central Valley water, but, again, we are a port that will never fish out of our own town again for a full season.    The U.S. salmon troll fleet is in trouble. There is no other way to put it. You have the Sacramento-San Joaquin fish. They are the bulk of what we fish on here in California. They are also a huge component of what gets caught in Oregon. They are caught off Washington. There have been net pen fish that were raised at, I believe it was Half Moon Bay, that were put in the ocean to increase our ability to catch. They are caught as far north as Alaska. You look at the Columbia River, they are the mainstay of Washington and Alaska troll salmon.    The problem is freshwater in inland watersheds. If you don't have enough freshwater for spawners to go up and you don't have enough freshwater for smolts to survive to get out, you lose your fishery. That is what we have had with the drought.    Assuming that this drought ends and we get all happy and there is lots of water again, it will be 3 years before the troll fleet sees a successful season. You have to have plenty of water to flush the smolts out of the river system and avoid predation. It takes water.    On the coast, you have at least 30,000 jobs, well over a billion dollars in economic benefit that happens. You have 2,000 commercial permit holders up and down the coast in the different states. Most of those boats have crews. There are all the support businesses on land, from Englund Marine, where I buy rope and buoys and all the parts and pieces that it takes to keep the boat going, to when I am stuck in Coos Bay and the wind is blowing, I am eating in restaurants and staying in hotels. Water is the issue.    Last year, I ended up spending the end of July and most of August in Oregon. I had four trips in a row with one or two fish per trip. I did not cover the expenses of the ice, let alone the cost of the fuel, let alone being away from home for 6 straight weeks. This year, Jeff French, fishing out of Half Moon Bay, had five fish in four trips. He too did not make his expenses. The Alaska troll king fishery that started July 1 lasted a grand total of 5 days. Their allocation was mopped up in 5 days.    Heather Sears, who has a boat out of Southern California, she leased a Washington permit. I think she told me she spent $8,000 leasing the permit. She figures she is not even going to put a hook in the water in Washington because their allocation for fish was so small, it wasn't even worth trying. She drove right past there and went to Alaska and had her 5 days.    There is an incredible cost to doing business here. I have lost $150,000 in the last 7 years trying to buy in and get a commercial fishing operation off the ground. Part of it is bad timing because of the drought, because we don't have water, because we don't have adequate salmon seasons.    People are hurting. Trucks are being repossessed. People are losing homes. Why? Because we don't have an adequate way to go take our boats and do what used to be done 30, 40, 50 years ago with ease. And a lot of it has to do with the fact that we don't have enough salmon, and we don't have enough salmon because we don't have enough water.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you.    The Chair now recognizes Mr. Azhderian for 5 minutes.</t>
   </si>
   <si>
+    <t>Azhderian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Azhderian. Good morning, Mr. Chair, Ranking Member Huffman, and members of the committee. It is an honor to be here with you today.    If there is one thing that I would ask you to remember about today, it is that California is at yet another crossroads in how we manage endangered species and water supply. The decisions that will be made in the coming weeks and months will have impacts probably for years.    The testimony you have heard from the Federal agencies and will hear from the Federal agencies is really aimed at assuaging the concerns about how we are managing both fish and water. What I found interesting in the testimony is not what they say so much, but rather what they don't say.    There is nothing about how other stressors are being dealt with, there is nothing about the ill-conceived summer flow proposal that is more likely to hurt Delta smelt than to help them, and is in clear conflict with temperature management objectives for winter-run salmon. There is nothing about what happens to the millions of Californians that are dependent on the CVP water supply if things do not go as planned. There is nothing about the water supply impacts that are already beginning to accrue into 2017; rather, it is an expression of a false confidence about a status quo, insular, single-species, single-stressor approach that somehow will work this time.    For a quarter of a century now, National Marine Fisheries Service and the Fish and Wildlife Service have been responsible for the protection and recovery of winter-run salmon and Delta smelt. The status of winter-run salmon is poor, not the worst we have seen, but poor. Delta smelt numbers, of course, are at historic lows. And throughout this time at each crossroads, the decision has been to continue to manage our fisheries in the same manner, this despite broad recognition from the onset that comprehensive solutions and collaboration was the way to proceed.    In the early 1990s, the environmental community, water users, and the state and Federal Government all recognized the need for collaboration and comprehensive solutions, and agreed when they signed the Bay Delta accord, to move forward in that fashion. Unfortunately, that did not occur. In the decades following, numerous independent science panels have warned us of sticking to this approach, of not researching the biological causal effects of these fisheries' declines. In 2009, the state of California reaffirmed the need for comprehensive solutions when it passed the Delta Reform Act. This is not new advice. It has just been ignored.    So we have a choice. It is critical to remember we have a choice. This crossroad provides an opportunity to broaden participation in the process, to reassess our current failed approaches, to research causal effects, enlist stakeholder support, demand accountability about the results, and refine and redirect our actions or reject them based upon demonstrable benefits and evidence.    In the end, changing demands is not about Ag. and municipal use. We are among the most efficient users of water in the world. It is about unbridled regulation. And water supply uncertainty is about the unceasing demand for more water for environmental use without accountability. After a quarter century, and fish populations, water supplies, and the people who care about both worse off than ever, it is time that we deserve better environmental protection.    I thank you for the opportunity to speak here today and look forward to any questions you may have. Thank you.</t>
   </si>
   <si>
@@ -178,6 +217,9 @@
     <t xml:space="preserve">    Mr. Huffman. One consequence of operating the system with that aggressive flexibility has been fishery impacts, as we have heard from our fisheries agencies. So, I just want to ask the two fisheries agencies here if they would agree with the proposition that that flexibility has in turn caused some harm to the struggling fisheries?</t>
   </si>
   <si>
+    <t>Lohoefener</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Lohoefener. Thank you for the question, Congressman Huffman. Well, one of the aspects I am proudest of over the last 8 years is the collaboration that has been built between the Bureau of Reclamation, National Marine Fisheries Service, California Department of Water Resources, and California Fish and Wildlife. That collaboration has led today to where we make much wiser decisions, but also to recognize----</t>
   </si>
   <si>
@@ -190,6 +232,9 @@
     <t xml:space="preserve">    Mr. Huffman. All right. And, Mr. Thom, would you agree with that?</t>
   </si>
   <si>
+    <t>Thom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thom. I would just say it has shown from the monitoring data for both 2014 and 2015 that the survival rate of winter-run Chinook was very low coming out of the Sacramento system over those 2 years.</t>
   </si>
   <si>
@@ -208,6 +253,12 @@
     <t>412295</t>
   </si>
   <si>
+    <t>McClintock</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McClintock. Thank you, Mr. Chairman.    Mr. Murillo, La Nina conditions now appear likely for this winter, do they not?</t>
   </si>
   <si>
@@ -304,6 +355,12 @@
     <t>400618</t>
   </si>
   <si>
+    <t>Costa</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Costa. Thank you very much, Mr. Chairman. And I want to commend you for holding this hearing, because I think it highlights what really is the situation in California, and that is a broken water system. The testimony and the questions, I think, all point out to the difficulty of a saying that I think aptly describes what we are dealing with, and that is, continuing to do what we have always done and expect different results, that is a definition of insanity, and that is what we are doing here by this additional flow that has taken place through the summer runs.    Mr. Lohoefener, I really commend your efforts over the years and your service to our country and your efforts to try to solve problems. Let me ask you, this summer outflow requirement--and certainly I think U.S. Fish and Wildlife Service ought to be combined with NMFS, that was a point that was made earlier. But this summer outflow requirement, is there anything in the biological opinion that requires this to take place?</t>
   </si>
   <si>
@@ -496,6 +553,12 @@
     <t>412294</t>
   </si>
   <si>
+    <t>Lummis</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Lummis. Thank you, Mr. Chairman.    You may be wondering why a Member from Wyoming would come to a hearing that is mostly a coastal states' issue. I got to go to Fresno to a hearing on the Delta smelt, and I got to see the dried up almond trees, the dead pistachio trees. We got to meet the farmers who are out of work, both owners and workers who are desperately trying to hang on to a culture, a way of life, a community. And they came together to address these issues, and it was kind of moving. So, I continue to have an interest in this issue.    My question is for you, and I am going to need help with your name. Is it Murillo, Mr. Murillo?</t>
   </si>
   <si>
@@ -553,6 +616,12 @@
     <t>412403</t>
   </si>
   <si>
+    <t>Denham</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Denham. Thank you, Mr. Chairman.    Mr. Murillo, you and I have worked together quite a bit on water deliveries and movement throughout the Central Valley. I want to see if you can give me an update on New Melones and the increased storage that we could possibly have there.</t>
   </si>
   <si>
@@ -608,6 +677,12 @@
   </si>
   <si>
     <t>412660</t>
+  </si>
+  <si>
+    <t>Newhouse</t>
+  </si>
+  <si>
+    <t>Dan</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Newhouse. Thank you, Mr. Chairman. Thank you all for being here this morning.    Being from the state of Washington, I am somewhat reluctant to get engaged in this California water war. I am like Mr. Costa, it is easy to let it drive you crazy. But if it weren't so important to not only the economy, but also the food supply of our whole country, as well as how you solve, or how we help you solve, your water issues will greatly impact how we solve water issues in the Pacific Northwest as well. So, this is a big issue.    I heard from Mr. LaMalfa in his opening comments some frustration about contrary policy by different agencies in the basin, or in the state. I think I heard that there were competing biological opinions and some interest in connecting those or making them into one, if that is a possibility.    Mr. Azhderian, you also expressed some frustration associated with a lack of transparency and collaboration. From those of us from the outside looking in, these California water wars have been going on for a long time. There must be a better way. And I think maybe we have touched on some of those avenues of doing this better, the collaboration, the transparency, all looking toward a similar goal of increased water availability, returning fish populations, habitat, but also protecting our very important agricultural industry and fishing industry.    So what would a better model look like? All of you from different perspectives. I will start with you, Mr. Azhderian.</t>
@@ -995,7 +1070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H192"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,7 +1078,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,4589 +1100,5387 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G42" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
       <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G51" t="s">
+        <v>79</v>
+      </c>
       <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G53" t="s">
+        <v>79</v>
+      </c>
       <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I53" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G55" t="s">
+        <v>79</v>
+      </c>
       <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G57" t="s">
+        <v>79</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G58" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G59" t="s">
+        <v>79</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G60" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G62" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G63" t="s">
+        <v>79</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G65" t="s">
+        <v>79</v>
+      </c>
       <c r="H65" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G66" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G67" t="s">
+        <v>79</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G68" t="s">
+        <v>41</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G69" t="s">
+        <v>79</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G71" t="s">
+        <v>79</v>
+      </c>
       <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G72" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>63</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G73" t="s">
+        <v>79</v>
+      </c>
       <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G74" t="s">
+        <v>41</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>63</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G75" t="s">
+        <v>79</v>
+      </c>
       <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G76" t="s">
+        <v>41</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>63</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G77" t="s">
+        <v>79</v>
+      </c>
       <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G78" t="s">
+        <v>41</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>95</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G80" t="s">
+        <v>113</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G81" t="s">
+        <v>67</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>95</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G82" t="s">
+        <v>113</v>
+      </c>
       <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G83" t="s">
+        <v>67</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>95</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G84" t="s">
+        <v>113</v>
+      </c>
       <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G85" t="s">
+        <v>37</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>95</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G86" t="s">
+        <v>113</v>
+      </c>
       <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G87" t="s">
+        <v>37</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>95</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G88" t="s">
+        <v>113</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G89" t="s">
+        <v>67</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>95</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G90" t="s">
+        <v>113</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G91" t="s">
+        <v>67</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>95</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G92" t="s">
+        <v>113</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G93" t="s">
+        <v>67</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>95</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G94" t="s">
+        <v>113</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G95" t="s">
+        <v>67</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>95</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G96" t="s">
+        <v>113</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G97" t="s">
+        <v>67</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>95</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G99" t="s">
+        <v>113</v>
+      </c>
       <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I99" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>95</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G101" t="s">
+        <v>113</v>
+      </c>
       <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G102" t="s">
+        <v>67</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>95</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G103" t="s">
+        <v>113</v>
+      </c>
       <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>24</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G104" t="s">
+        <v>67</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>95</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G105" t="s">
+        <v>113</v>
+      </c>
       <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I105" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>24</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G106" t="s">
+        <v>44</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>95</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G107" t="s">
+        <v>113</v>
+      </c>
       <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I107" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G109" t="s">
+        <v>29</v>
+      </c>
       <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I109" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G110" t="s">
+        <v>34</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G111" t="s">
+        <v>29</v>
+      </c>
       <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G112" t="s">
+        <v>34</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G113" t="s">
+        <v>29</v>
+      </c>
       <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>24</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G114" t="s">
+        <v>34</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G115" t="s">
+        <v>29</v>
+      </c>
       <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I115" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G116" t="s">
+        <v>34</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G117" t="s">
+        <v>29</v>
+      </c>
       <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G118" t="s">
+        <v>72</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G119" t="s">
+        <v>29</v>
+      </c>
       <c r="H119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I119" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G120" t="s">
+        <v>72</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G121" t="s">
+        <v>29</v>
+      </c>
       <c r="H121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G122" t="s">
+        <v>72</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G123" t="s">
+        <v>29</v>
+      </c>
       <c r="H123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G124" t="s">
+        <v>72</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G125" t="s">
+        <v>29</v>
+      </c>
       <c r="H125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I125" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G126" t="s">
+        <v>72</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G127" t="s">
+        <v>29</v>
+      </c>
       <c r="H127" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G128" t="s">
+        <v>34</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G129" t="s">
+        <v>29</v>
+      </c>
       <c r="H129" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G130" t="s">
+        <v>34</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G131" t="s">
+        <v>29</v>
+      </c>
       <c r="H131" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G132" t="s">
+        <v>34</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G133" t="s">
+        <v>29</v>
+      </c>
       <c r="H133" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G134" t="s">
+        <v>34</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G135" t="s">
+        <v>29</v>
+      </c>
       <c r="H135" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I135" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G136" t="s">
+        <v>44</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G137" t="s">
+        <v>29</v>
+      </c>
       <c r="H137" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I137" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>24</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G138" t="s">
+        <v>44</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G139" t="s">
+        <v>29</v>
+      </c>
       <c r="H139" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I139" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
       <c r="H140" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="G141" t="s">
+        <v>29</v>
+      </c>
       <c r="H141" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I141" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>159</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G143" t="s">
+        <v>179</v>
+      </c>
       <c r="H143" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I143" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>24</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G144" t="s">
+        <v>37</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>159</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G145" t="s">
+        <v>179</v>
+      </c>
       <c r="H145" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I145" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>24</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G146" t="s">
+        <v>37</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>159</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G147" t="s">
+        <v>179</v>
+      </c>
       <c r="H147" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>24</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G148" t="s">
+        <v>67</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>159</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G149" t="s">
+        <v>179</v>
+      </c>
       <c r="H149" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I149" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>24</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G150" t="s">
+        <v>67</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>159</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G151" t="s">
+        <v>179</v>
+      </c>
       <c r="H151" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I151" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>95</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G152" t="s">
+        <v>113</v>
+      </c>
       <c r="H152" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I152" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>159</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G153" t="s">
+        <v>179</v>
+      </c>
       <c r="H153" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I153" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>95</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G154" t="s">
+        <v>113</v>
+      </c>
       <c r="H154" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I154" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>159</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G155" t="s">
+        <v>179</v>
+      </c>
       <c r="H155" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I155" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>24</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G156" t="s">
+        <v>37</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>159</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G157" t="s">
+        <v>179</v>
+      </c>
       <c r="H157" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I157" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>24</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G158" t="s">
+        <v>72</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>159</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>178</v>
+      </c>
+      <c r="G159" t="s">
+        <v>179</v>
+      </c>
       <c r="H159" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>180</v>
+      </c>
+      <c r="I159" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
       <c r="H160" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>178</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G161" t="s">
+        <v>200</v>
+      </c>
       <c r="H161" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I161" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>24</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G162" t="s">
+        <v>37</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>178</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G163" t="s">
+        <v>200</v>
+      </c>
       <c r="H163" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I163" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>24</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G164" t="s">
+        <v>37</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>178</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G165" t="s">
+        <v>200</v>
+      </c>
       <c r="H165" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I165" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>24</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G166" t="s">
+        <v>34</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>178</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G167" t="s">
+        <v>200</v>
+      </c>
       <c r="H167" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I167" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>24</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G168" t="s">
+        <v>37</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>178</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G169" t="s">
+        <v>200</v>
+      </c>
       <c r="H169" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I169" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>24</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G170" t="s">
+        <v>72</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>178</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G171" t="s">
+        <v>200</v>
+      </c>
       <c r="H171" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I171" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>24</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G172" t="s">
+        <v>41</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>178</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G173" t="s">
+        <v>200</v>
+      </c>
       <c r="H173" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I173" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>24</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G174" t="s">
+        <v>44</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>178</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G175" t="s">
+        <v>200</v>
+      </c>
       <c r="H175" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I175" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>24</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G176" t="s">
+        <v>41</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>178</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>199</v>
+      </c>
+      <c r="G177" t="s">
+        <v>200</v>
+      </c>
       <c r="H177" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>201</v>
+      </c>
+      <c r="I177" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
       <c r="H178" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>197</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G179" t="s">
+        <v>221</v>
+      </c>
       <c r="H179" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I179" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>24</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G180" t="s">
+        <v>44</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>197</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G181" t="s">
+        <v>221</v>
+      </c>
       <c r="H181" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I181" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>24</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G182" t="s">
+        <v>41</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>197</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G183" t="s">
+        <v>221</v>
+      </c>
       <c r="H183" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I183" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>24</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G184" t="s">
+        <v>34</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>197</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G185" t="s">
+        <v>221</v>
+      </c>
       <c r="H185" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I185" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>24</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G186" t="s">
+        <v>37</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>197</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G187" t="s">
+        <v>221</v>
+      </c>
       <c r="H187" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I187" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>24</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G188" t="s">
+        <v>37</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>197</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G189" t="s">
+        <v>221</v>
+      </c>
       <c r="H189" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I189" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>24</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="G190" t="s">
+        <v>37</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>197</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G191" t="s">
+        <v>221</v>
+      </c>
       <c r="H191" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I191" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
       <c r="H192" t="s">
-        <v>210</v>
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20918.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20918.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="240">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412275</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Fleming</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412511</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Huffman</t>
   </si>
   <si>
@@ -83,6 +92,9 @@
   </si>
   <si>
     <t>412397</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Gosar</t>
@@ -1070,7 +1082,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:J192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,7 +1090,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,5384 +1115,5800 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>48</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" t="s">
-        <v>67</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>71</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
-      </c>
-      <c r="G46" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" t="s">
-        <v>37</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G51" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H51" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J51" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
-      </c>
-      <c r="G52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
-      </c>
-      <c r="G54" t="s">
-        <v>37</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
-      </c>
-      <c r="G56" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G57" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
-      </c>
-      <c r="G58" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G59" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
-      </c>
-      <c r="G60" t="s">
-        <v>34</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>38</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
-      </c>
-      <c r="G62" t="s">
-        <v>34</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G63" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H63" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
-      </c>
-      <c r="G64" t="s">
-        <v>34</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>38</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H65" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
-      </c>
-      <c r="G66" t="s">
-        <v>44</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>48</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G67" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H67" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
-      </c>
-      <c r="G68" t="s">
-        <v>41</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>45</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G69" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H69" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
-      </c>
-      <c r="G70" t="s">
-        <v>41</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>45</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G71" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H71" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I71" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
-      </c>
-      <c r="G72" t="s">
-        <v>41</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G73" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H73" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
-      </c>
-      <c r="G74" t="s">
-        <v>41</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G75" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H75" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
-      </c>
-      <c r="G76" t="s">
-        <v>41</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G77" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H77" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>84</v>
+      </c>
+      <c r="J77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
-      </c>
-      <c r="G78" t="s">
-        <v>41</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G80" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I80" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
-      </c>
-      <c r="G81" t="s">
-        <v>67</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>71</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G82" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H82" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I82" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
-      </c>
-      <c r="G83" t="s">
-        <v>67</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>71</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G84" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H84" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I84" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
-      </c>
-      <c r="G85" t="s">
-        <v>37</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>41</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G86" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I86" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
-      </c>
-      <c r="G87" t="s">
-        <v>37</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>41</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G88" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I88" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
-      </c>
-      <c r="G89" t="s">
-        <v>67</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>71</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G90" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I90" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G91" t="s">
-        <v>67</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>71</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G92" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I92" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J92" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
-      </c>
-      <c r="G93" t="s">
-        <v>67</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>71</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G94" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I94" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
-      </c>
-      <c r="G95" t="s">
-        <v>67</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>71</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G96" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H96" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I96" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J96" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
-      </c>
-      <c r="G97" t="s">
-        <v>67</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>71</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G99" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H99" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I99" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G101" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H101" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I101" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
-      </c>
-      <c r="G102" t="s">
-        <v>67</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>71</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G103" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H103" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I103" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J103" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
-      </c>
-      <c r="G104" t="s">
-        <v>67</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>71</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G105" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H105" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I105" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
-      </c>
-      <c r="G106" t="s">
-        <v>44</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>48</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G107" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H107" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I107" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J107" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H109" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I109" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J109" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
-      </c>
-      <c r="G110" t="s">
-        <v>34</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>38</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H111" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I111" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J111" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G112" t="s">
-        <v>34</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>38</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H113" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I113" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J113" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
-      </c>
-      <c r="G114" t="s">
-        <v>34</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>38</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H115" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I115" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J115" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
-      </c>
-      <c r="G116" t="s">
-        <v>34</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>38</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H117" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I117" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J117" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
-      </c>
-      <c r="G118" t="s">
-        <v>72</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>76</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H119" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I119" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J119" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
-      </c>
-      <c r="G120" t="s">
-        <v>72</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>76</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H121" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I121" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J121" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
-      </c>
-      <c r="G122" t="s">
-        <v>72</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>76</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H123" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I123" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J123" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
-      </c>
-      <c r="G124" t="s">
-        <v>72</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>76</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H125" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I125" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J125" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
-      </c>
-      <c r="G126" t="s">
-        <v>72</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>76</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H127" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I127" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J127" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
-      </c>
-      <c r="G128" t="s">
-        <v>34</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>38</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H129" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I129" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J129" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
-      </c>
-      <c r="G130" t="s">
-        <v>34</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>38</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H131" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I131" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J131" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>33</v>
-      </c>
-      <c r="G132" t="s">
-        <v>34</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>38</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H133" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I133" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J133" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>33</v>
-      </c>
-      <c r="G134" t="s">
-        <v>34</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>38</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H135" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I135" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J135" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
-      </c>
-      <c r="G136" t="s">
-        <v>44</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>48</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H137" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I137" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J137" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
-      </c>
-      <c r="G138" t="s">
-        <v>44</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>48</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H139" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I139" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J139" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H141" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I141" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J141" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G143" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="H143" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I143" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J143" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>33</v>
-      </c>
-      <c r="G144" t="s">
-        <v>37</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>41</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G145" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="H145" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I145" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J145" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
-      </c>
-      <c r="G146" t="s">
-        <v>37</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>41</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G147" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="H147" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I147" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J147" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
-      </c>
-      <c r="G148" t="s">
-        <v>67</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>71</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G149" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="H149" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I149" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J149" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
-      </c>
-      <c r="G150" t="s">
-        <v>67</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>71</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G151" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="H151" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I151" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J151" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G152" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H152" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I152" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J152" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G153" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="H153" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I153" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J153" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G154" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="H154" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I154" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>118</v>
+      </c>
+      <c r="J154" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G155" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="H155" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I155" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J155" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
-      </c>
-      <c r="G156" t="s">
-        <v>37</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>41</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G157" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="H157" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J157" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>33</v>
-      </c>
-      <c r="G158" t="s">
-        <v>72</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>76</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G159" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="H159" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I159" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="J159" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G161" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="H161" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I161" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J161" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
-      </c>
-      <c r="G162" t="s">
-        <v>37</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>41</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G163" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="H163" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I163" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J163" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>33</v>
-      </c>
-      <c r="G164" t="s">
-        <v>37</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>41</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G165" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="H165" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I165" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J165" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
-      </c>
-      <c r="G166" t="s">
-        <v>34</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>38</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G167" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="H167" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I167" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J167" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
-      </c>
-      <c r="G168" t="s">
-        <v>37</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>41</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G169" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="H169" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I169" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J169" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
-      </c>
-      <c r="G170" t="s">
-        <v>72</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>76</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G171" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="H171" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I171" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J171" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
-      </c>
-      <c r="G172" t="s">
-        <v>41</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>45</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G173" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="H173" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I173" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J173" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>33</v>
-      </c>
-      <c r="G174" t="s">
-        <v>44</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>48</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G175" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="H175" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I175" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J175" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
-      </c>
-      <c r="G176" t="s">
-        <v>41</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>45</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G177" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="H177" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I177" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J177" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I178" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J178" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G179" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="H179" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I179" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>226</v>
+      </c>
+      <c r="J179" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
-      </c>
-      <c r="G180" t="s">
-        <v>44</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>48</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G181" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="H181" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I181" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>226</v>
+      </c>
+      <c r="J181" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
-      </c>
-      <c r="G182" t="s">
-        <v>41</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>45</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G183" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="H183" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I183" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>226</v>
+      </c>
+      <c r="J183" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>33</v>
-      </c>
-      <c r="G184" t="s">
-        <v>34</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>38</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G185" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="H185" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I185" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>226</v>
+      </c>
+      <c r="J185" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
-      </c>
-      <c r="G186" t="s">
-        <v>37</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>41</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G187" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="H187" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I187" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>226</v>
+      </c>
+      <c r="J187" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
-      </c>
-      <c r="G188" t="s">
-        <v>37</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>41</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G189" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="H189" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I189" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>226</v>
+      </c>
+      <c r="J189" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
-      </c>
-      <c r="G190" t="s">
-        <v>37</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>41</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G191" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="H191" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I191" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>226</v>
+      </c>
+      <c r="J191" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I192" t="s">
-        <v>235</v>
+        <v>16</v>
+      </c>
+      <c r="J192" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
